--- a/CPyr/Gap-final dataset.xlsx
+++ b/CPyr/Gap-final dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\CPyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9336B11-FC9D-4B6D-82D7-FE0C795B96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62995C41-F024-4181-BDBA-B95C68A57F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2280" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">H H H </t>
   </si>
   <si>
-    <t>Molecule Et sites</t>
-  </si>
-  <si>
     <t>Average electronegativity 1</t>
   </si>
   <si>
@@ -346,6 +343,10 @@
   </si>
   <si>
     <t>NH2 CF3 H</t>
+  </si>
+  <si>
+    <t>Molecules (the orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -779,115 +780,115 @@
   <sheetData>
     <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>0</v>
@@ -5535,7 +5536,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2">
         <v>-2.46286761</v>
@@ -5651,7 +5652,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2">
         <v>-1.70123172</v>
@@ -5767,7 +5768,7 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2">
         <v>-2.46286761</v>
@@ -5883,7 +5884,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2">
         <v>-2.1586486300000001</v>
@@ -5999,7 +6000,7 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2">
         <v>-2.1586486300000001</v>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2">
         <v>-2.46286761</v>
@@ -6231,7 +6232,7 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2">
         <v>-5.1216544199999996</v>
@@ -6347,7 +6348,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2">
         <v>-1.8451779100000001</v>
@@ -6463,7 +6464,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2">
         <v>-2.1586486300000001</v>
@@ -6579,7 +6580,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2">
         <v>-5.1216544199999996</v>
@@ -6695,7 +6696,7 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2">
         <v>-2.1586486300000001</v>
@@ -6811,7 +6812,7 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2">
         <v>-5.1216544199999996</v>
@@ -6927,7 +6928,7 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2">
         <v>-1.0593242300000001</v>
@@ -7043,7 +7044,7 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2">
         <v>-5.1216544199999996</v>
@@ -7159,7 +7160,7 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2">
         <v>-2.46286761</v>
@@ -7275,7 +7276,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2">
         <v>-2.1586486300000001</v>
@@ -7391,7 +7392,7 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2">
         <v>-1.0593242300000001</v>
@@ -7507,7 +7508,7 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2">
         <v>-2.1586486300000001</v>
@@ -7623,7 +7624,7 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2">
         <v>-1.0593242300000001</v>
@@ -7739,7 +7740,7 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2">
         <v>-2.46286761</v>
@@ -7855,7 +7856,7 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2">
         <v>-5.1216544199999996</v>
@@ -7971,7 +7972,7 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2">
         <v>-5.1216544199999996</v>
@@ -8087,7 +8088,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2">
         <v>-2.46286761</v>
@@ -8203,7 +8204,7 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2">
         <v>-2.1586486300000001</v>
@@ -8319,7 +8320,7 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2">
         <v>-2.1586486300000001</v>
@@ -8435,7 +8436,7 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2">
         <v>-5.1216544199999996</v>
@@ -8551,7 +8552,7 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2">
         <v>-1.0593242300000001</v>
@@ -8667,7 +8668,7 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2">
         <v>-1.8451779100000001</v>

--- a/CPyr/Gap-final dataset.xlsx
+++ b/CPyr/Gap-final dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\CPyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62995C41-F024-4181-BDBA-B95C68A57F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A7985-6B46-4D5F-8A6E-0FA52443459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">H H Me </t>
   </si>
   <si>
-    <t xml:space="preserve">Et Et CF3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Et OCH3 OCH3 </t>
   </si>
   <si>
@@ -345,7 +342,11 @@
     <t>NH2 CF3 H</t>
   </si>
   <si>
-    <t>Molecules (the orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
+    <t xml:space="preserve">Et Et CF3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecules (Simplified as functional group combinations of site (1,2,3), which correspond to site (4,5,6) in the main text and Sl. The orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,13 +426,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,157 +739,163 @@
   <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="44.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="74.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="44.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="44.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="74.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="51.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="120" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>0</v>
@@ -1360,7 +1367,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
         <v>-1.0593242300000001</v>
@@ -1476,7 +1483,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>-1.0593242300000001</v>
@@ -1592,7 +1599,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1708,7 +1715,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>-1.70123172</v>
@@ -1824,7 +1831,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>-1.0593242300000001</v>
@@ -1940,7 +1947,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -2056,7 +2063,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>-1.70123172</v>
@@ -2172,7 +2179,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>-5.1216544199999996</v>
@@ -2288,7 +2295,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>-1.8451779100000001</v>
@@ -2404,7 +2411,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>-2.1586486300000001</v>
@@ -2520,7 +2527,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2636,7 +2643,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>-2.46286761</v>
@@ -2752,7 +2759,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>-1.0593242300000001</v>
@@ -2868,7 +2875,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>-1.70123172</v>
@@ -2984,7 +2991,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>-1.8451779100000001</v>
@@ -3100,7 +3107,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>-2.46286761</v>
@@ -3216,7 +3223,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3332,7 +3339,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>-1.0593242300000001</v>
@@ -3448,7 +3455,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>-2.1586486300000001</v>
@@ -3564,7 +3571,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>-1.70123172</v>
@@ -3680,7 +3687,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -3796,7 +3803,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>-1.8451779100000001</v>
@@ -3912,7 +3919,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -4028,7 +4035,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>-1.70123172</v>
@@ -4144,7 +4151,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>-1.8451779100000001</v>
@@ -4260,7 +4267,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -4376,7 +4383,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>-1.70123172</v>
@@ -4492,7 +4499,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>-1.8451779100000001</v>
@@ -4608,7 +4615,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>-1.0593242300000001</v>
@@ -4724,7 +4731,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -4840,7 +4847,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>-1.70123172</v>
@@ -4956,7 +4963,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>-1.70123172</v>
@@ -5072,7 +5079,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>-2.46286761</v>
@@ -5188,7 +5195,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -5304,7 +5311,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -5420,7 +5427,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -5536,7 +5543,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2">
         <v>-2.46286761</v>
@@ -5652,7 +5659,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2">
         <v>-1.70123172</v>
@@ -5768,7 +5775,7 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2">
         <v>-2.46286761</v>
@@ -5884,7 +5891,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2">
         <v>-2.1586486300000001</v>
@@ -6000,7 +6007,7 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
         <v>-2.1586486300000001</v>
@@ -6116,7 +6123,7 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2">
         <v>-2.46286761</v>
@@ -6232,7 +6239,7 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2">
         <v>-5.1216544199999996</v>
@@ -6348,7 +6355,7 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2">
         <v>-1.8451779100000001</v>
@@ -6464,7 +6471,7 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2">
         <v>-2.1586486300000001</v>
@@ -6580,7 +6587,7 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2">
         <v>-5.1216544199999996</v>
@@ -6696,7 +6703,7 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2">
         <v>-2.1586486300000001</v>
@@ -6812,7 +6819,7 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2">
         <v>-5.1216544199999996</v>
@@ -6928,7 +6935,7 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2">
         <v>-1.0593242300000001</v>
@@ -7044,7 +7051,7 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2">
         <v>-5.1216544199999996</v>
@@ -7160,7 +7167,7 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2">
         <v>-2.46286761</v>
@@ -7276,7 +7283,7 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2">
         <v>-2.1586486300000001</v>
@@ -7392,7 +7399,7 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2">
         <v>-1.0593242300000001</v>
@@ -7508,7 +7515,7 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2">
         <v>-2.1586486300000001</v>
@@ -7624,7 +7631,7 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2">
         <v>-1.0593242300000001</v>
@@ -7740,7 +7747,7 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2">
         <v>-2.46286761</v>
@@ -7856,7 +7863,7 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2">
         <v>-5.1216544199999996</v>
@@ -7972,7 +7979,7 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2">
         <v>-5.1216544199999996</v>
@@ -8088,7 +8095,7 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2">
         <v>-2.46286761</v>
@@ -8204,7 +8211,7 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2">
         <v>-2.1586486300000001</v>
@@ -8320,7 +8327,7 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
         <v>-2.1586486300000001</v>
@@ -8436,7 +8443,7 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2">
         <v>-5.1216544199999996</v>
@@ -8552,7 +8559,7 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2">
         <v>-1.0593242300000001</v>
@@ -8668,7 +8675,7 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2">
         <v>-1.8451779100000001</v>
